--- a/image.xlsx
+++ b/image.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\eventCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C7BD9B-3981-4A30-8B22-A2FD6DFED6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5180A77-A380-46C3-B6FF-D9B5B7311831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0AC23C47-2D27-4A94-98CB-69F4768973F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0AC23C47-2D27-4A94-98CB-69F4768973F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="73">
   <si>
     <t>関数名_ファイル名</t>
     <rPh sb="0" eb="2">
@@ -132,12 +133,204 @@
     <t>Select ・・・</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>ParentPath</t>
+  </si>
+  <si>
+    <t>targetWord</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>Funcition</t>
+  </si>
+  <si>
+    <t>colNum</t>
+  </si>
+  <si>
+    <t>header/detail</t>
+  </si>
+  <si>
+    <t>DCTFile050ExcelMappingRule.java</t>
+  </si>
+  <si>
+    <t>N:\New_EQP-Care(Web)\emd-web-struts2.5\src\jp\co\komatsu\emdw\det</t>
+  </si>
+  <si>
+    <t>import jp.co.komatsu.emdw</t>
+  </si>
+  <si>
+    <t>import jp.co.komatsu.emdw.dmt.abst.DMTExcelMappingRule;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DMTExcelMappingRule</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>public class DCTFile050ExcelMappingRule extends DMTExcelMappingRule {</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>* @see jp.co.komatsu.emdw.dmt.abst.DMTExcelMappingRule#getHeaderRowIndex()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* @see jp.co.komatsu.emdw.dmt.abst.DMTExcelMappingRule#getFirstRowIndex()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DefaultDETExcelReader.java</t>
+  </si>
+  <si>
+    <t>import jp.co.komatsu.emdw.det.abst.DETExcelReader;</t>
+  </si>
+  <si>
+    <t>DETExcelReader</t>
+  </si>
+  <si>
+    <t>import jp.co.komatsu.emdw.det.dto.DETFileDto;</t>
+  </si>
+  <si>
+    <t>DETFileDto</t>
+  </si>
+  <si>
+    <t>public class DefaultDETExcelReader extends DETExcelReader {</t>
+  </si>
+  <si>
+    <t>* @see jp.co.komatsu.emdw.det.abst.DETExcelReader#readIndividualContents(org.apache.poi.ss.usermodel.Sheet, jp.co.komatsu.emdw.det.dto.DETFileDto)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* @see jp.co.komatsu.emdw.det.abst.DETExcelReader#readIndividualContents(org.apache.poi.ss.usermodel.Sheet, jp.co.komatsu.emdw.det.dto.DETFileDto)</t>
+  </si>
+  <si>
+    <t>protected DETFileDto readIndividualContents(Sheet sheet, DETFileDto fileDto) {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>startNum</t>
+  </si>
+  <si>
+    <t>endNum</t>
+  </si>
+  <si>
+    <t>fileNameFull</t>
+  </si>
+  <si>
+    <t>DCTFile026DatabaseReader</t>
+  </si>
+  <si>
+    <t>public class DCTFile026DatabaseReader extends DCTDatabaseReader</t>
+  </si>
+  <si>
+    <t>getMonth</t>
+  </si>
+  <si>
+    <t>N:\New_EQP-Care(Web)\emd-web-struts2.5\src\jp\co\komatsu\emdw\dct\DCTFile026DatabaseReader.java</t>
+  </si>
+  <si>
+    <t>readIndividualContents</t>
+  </si>
+  <si>
+    <t>DCTFile026ExcelMappingRule</t>
+  </si>
+  <si>
+    <t>public class DCTFile026ExcelMappingRule extends DCTExcelMappingRule</t>
+  </si>
+  <si>
+    <t>getHeaderRowIndex</t>
+  </si>
+  <si>
+    <t>N:\New_EQP-Care(Web)\emd-web-struts2.5\src\jp\co\komatsu\emdw\dct\DCTFile026ExcelMappingRule.java</t>
+  </si>
+  <si>
+    <t>getFirstRowIndex</t>
+  </si>
+  <si>
+    <t>DCTFile026ExcelWriter</t>
+  </si>
+  <si>
+    <t>public class DCTFile026ExcelWriter extends DCTExcelWriter</t>
+  </si>
+  <si>
+    <t>writeIndividualContents</t>
+  </si>
+  <si>
+    <t>N:\New_EQP-Care(Web)\emd-web-struts2.5\src\jp\co\komatsu\emdw\dct\DCTFile026ExcelWriter.java</t>
+  </si>
+  <si>
+    <t>DCTFile031ExcelMappingRule</t>
+  </si>
+  <si>
+    <t>public class DCTFile031ExcelMappingRule extends DETExcelMappingRule</t>
+  </si>
+  <si>
+    <t>N:\New_EQP-Care(Web)\emd-web-struts2.5\src\jp\co\komatsu\emdw\dct\DCTFile031ExcelMappingRule.java</t>
+  </si>
+  <si>
+    <t>caller_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>caller_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>callee_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>callee_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isCallee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○.クラスA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N:\New_EQP-Care(Web)\emd-web-struts2.5\src\jp\co\komatsu\emdw\dct\DCTFile026DatabaseReader.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△△.クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○.クラスB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◇◇.クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +346,45 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,8 +401,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,18 +739,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E0F8F1-69D2-40F8-BBCD-4F16680D0D48}">
   <dimension ref="B3:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R31" sqref="B3:R31"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="18.375" customWidth="1"/>
+    <col min="2" max="11" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="18.3984375" customWidth="1"/>
     <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -542,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -577,7 +820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -609,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -641,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -670,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -693,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -722,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -751,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>0</v>
       </c>
@@ -768,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -800,7 +1043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
       <c r="G13" t="s">
         <v>0</v>
       </c>
@@ -820,7 +1063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="J14" t="s">
         <v>0</v>
       </c>
@@ -831,7 +1074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -866,7 +1109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -898,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -930,7 +1173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>0</v>
       </c>
@@ -959,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -982,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.45">
       <c r="G25" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.45">
       <c r="J26" t="s">
         <v>0</v>
       </c>
@@ -1118,6 +1361,589 @@
       </c>
       <c r="R26" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5DE6BB-F328-4D95-9FCA-549183F5F3B1}">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="29.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="59.296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.69921875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2">
+        <v>92</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2">
+        <v>67</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="2">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2">
+        <v>59</v>
+      </c>
+      <c r="E23" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2">
+        <v>204</v>
+      </c>
+      <c r="E24" s="2">
+        <v>206</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2">
+        <v>212</v>
+      </c>
+      <c r="E25" s="2">
+        <v>214</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2">
+        <v>52</v>
+      </c>
+      <c r="E32" s="2">
+        <v>92</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/image.xlsx
+++ b/image.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\eventCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5180A77-A380-46C3-B6FF-D9B5B7311831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189AFF4F-5811-4A63-BD12-D4D14284CA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0AC23C47-2D27-4A94-98CB-69F4768973F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0AC23C47-2D27-4A94-98CB-69F4768973F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="78">
   <si>
     <t>関数名_ファイル名</t>
     <rPh sb="0" eb="2">
@@ -324,6 +324,22 @@
   <si>
     <t>◇◇.クラス</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCTFile050ExcelMappingRule.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import jp.co.komatsu.emdw.dmt.abst.DMTExcelMappingRule;</t>
+  </si>
+  <si>
+    <t>* @see jp.co.komatsu.emdw.dmt.abst.DMTExcelMappingRule#getFirstRowIndex()</t>
+  </si>
+  <si>
+    <t>* @see jp.co.komatsu.emdw.dmt.abst.DMTExcelMappingRule#getHeaderRowIndex()</t>
+  </si>
+  <si>
+    <t>protected DETFileDto readIndividualContents(Sheet sheet, DETFileDto fileDto) {</t>
   </si>
 </sst>
 </file>
@@ -739,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E0F8F1-69D2-40F8-BBCD-4F16680D0D48}">
   <dimension ref="B3:R26"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1371,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5DE6BB-F328-4D95-9FCA-549183F5F3B1}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1460,7 +1476,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
@@ -1944,6 +1960,259 @@
       </c>
       <c r="D42" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="2">
+        <v>8</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="2">
+        <v>20</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="2">
+        <v>73</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="2">
+        <v>7</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="2">
+        <v>8</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="2">
+        <v>24</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="2">
+        <v>28</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="2">
+        <v>28</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="2">
+        <v>30</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
